--- a/TX/raw/TX_2020-09-25_wwwdshsstatetxuscoronavi_Ekr550Nld6AdCA.xlsx
+++ b/TX/raw/TX_2020-09-25_wwwdshsstatetxuscoronavi_Ekr550Nld6AdCA.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C111594C-F79F-4678-AFBC-5919B1CA9AB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12042" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" windowHeight="12042" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -1207,41 +1207,49 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" count="4" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="12">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="##,###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="###,##0"/>
     <numFmt numFmtId="167" formatCode="#,###,###,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="9.5"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="9"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
+      <color rgb="FF112277"/>
       <sz val="11"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
-      <sz val="9.5"/>
       <color rgb="FF112277"/>
-      <name val="Arial"/>
+      <sz val="9"/>
     </font>
     <font>
-      <sz val="9.5"/>
+      <name val="Arial"/>
       <color rgb="FF112277"/>
-      <name val="Arial"/>
+      <sz val="9"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1272,11 +1280,21 @@
   </fills>
   <borders count="3">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1291,7 +1309,9 @@
       <bottom style="thin">
         <color rgb="FFB0B7BB"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1306,15 +1326,17 @@
       <bottom style="thin">
         <color rgb="FFC1C1C1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,40 +1345,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{FBF6171C-1A20-41B2-9728-4203898BFA69}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1486,30 +1508,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C260"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="topLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row ht="50.05" customHeight="1" r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1520,7 +1541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1542,7 +1563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1553,7 +1574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1564,7 +1585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1575,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1586,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1597,7 +1618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1608,7 +1629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +1640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1630,7 +1651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1641,7 +1662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1652,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1663,7 +1684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1674,7 +1695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1685,7 +1706,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -1696,7 +1717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1707,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1718,7 +1739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1729,7 +1750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1740,7 +1761,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1751,7 +1772,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1762,7 +1783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1773,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1784,7 +1805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1795,7 +1816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1806,7 +1827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1817,7 +1838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1828,7 +1849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1839,7 +1860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1850,7 +1871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -1861,7 +1882,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -1872,7 +1893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1883,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1894,7 +1915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -1905,7 +1926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -1916,7 +1937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -1927,7 +1948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -1938,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -1949,7 +1970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -1960,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -1971,7 +1992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -1982,7 +2003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -1993,7 +2014,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -2004,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
@@ -2015,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -2026,7 +2047,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -2037,7 +2058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -2048,7 +2069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -2059,7 +2080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -2070,7 +2091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -2081,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -2092,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -2103,7 +2124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -2114,7 +2135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -2125,7 +2146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -2136,7 +2157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2147,7 +2168,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
@@ -2158,7 +2179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -2169,7 +2190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -2180,7 +2201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2191,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -2202,7 +2223,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -2213,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -2224,7 +2245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -2235,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -2246,7 +2267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
@@ -2257,7 +2278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
@@ -2268,7 +2289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
@@ -2279,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
@@ -2290,7 +2311,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
@@ -2301,7 +2322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>75</v>
       </c>
@@ -2312,7 +2333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
@@ -2323,7 +2344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>77</v>
       </c>
@@ -2334,7 +2355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
@@ -2345,7 +2366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -2356,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -2367,7 +2388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -2378,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -2389,7 +2410,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -2400,7 +2421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -2411,7 +2432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -2422,7 +2443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -2433,7 +2454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -2444,7 +2465,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -2455,7 +2476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -2466,7 +2487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -2477,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -2488,7 +2509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -2499,7 +2520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
@@ -2510,7 +2531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
@@ -2521,7 +2542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
@@ -2532,7 +2553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
@@ -2543,7 +2564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>97</v>
       </c>
@@ -2554,7 +2575,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>98</v>
       </c>
@@ -2565,7 +2586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
@@ -2576,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
         <v>100</v>
       </c>
@@ -2587,7 +2608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
         <v>101</v>
       </c>
@@ -2598,7 +2619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
         <v>102</v>
       </c>
@@ -2609,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
         <v>103</v>
       </c>
@@ -2620,7 +2641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
@@ -2631,7 +2652,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
@@ -2642,7 +2663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
@@ -2653,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -2664,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
@@ -2675,7 +2696,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
@@ -2686,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
@@ -2697,7 +2718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
@@ -2708,7 +2729,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
@@ -2719,7 +2740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
@@ -2730,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
@@ -2741,7 +2762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="s">
         <v>115</v>
       </c>
@@ -2752,7 +2773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
         <v>116</v>
       </c>
@@ -2763,7 +2784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
         <v>117</v>
       </c>
@@ -2774,7 +2795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
         <v>118</v>
       </c>
@@ -2785,7 +2806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
         <v>119</v>
       </c>
@@ -2796,7 +2817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
         <v>120</v>
       </c>
@@ -2807,7 +2828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
         <v>121</v>
       </c>
@@ -2818,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
         <v>122</v>
       </c>
@@ -2829,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
         <v>123</v>
       </c>
@@ -2840,7 +2861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="3" t="s">
         <v>124</v>
       </c>
@@ -2851,7 +2872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="3" t="s">
         <v>125</v>
       </c>
@@ -2862,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
         <v>126</v>
       </c>
@@ -2873,7 +2894,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="3" t="s">
         <v>127</v>
       </c>
@@ -2884,7 +2905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="3" t="s">
         <v>128</v>
       </c>
@@ -2895,7 +2916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
         <v>129</v>
       </c>
@@ -2906,7 +2927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="3" t="s">
         <v>130</v>
       </c>
@@ -2917,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
         <v>131</v>
       </c>
@@ -2928,7 +2949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="3" t="s">
         <v>132</v>
       </c>
@@ -2939,7 +2960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="s">
         <v>133</v>
       </c>
@@ -2950,7 +2971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
         <v>134</v>
       </c>
@@ -2961,7 +2982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
         <v>135</v>
       </c>
@@ -2972,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="3" t="s">
         <v>136</v>
       </c>
@@ -2983,7 +3004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="3" t="s">
         <v>137</v>
       </c>
@@ -2994,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="3" t="s">
         <v>138</v>
       </c>
@@ -3005,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="3" t="s">
         <v>139</v>
       </c>
@@ -3016,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="3" t="s">
         <v>140</v>
       </c>
@@ -3027,7 +3048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
         <v>141</v>
       </c>
@@ -3038,7 +3059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
         <v>142</v>
       </c>
@@ -3049,7 +3070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="3" t="s">
         <v>143</v>
       </c>
@@ -3060,7 +3081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="3" t="s">
         <v>144</v>
       </c>
@@ -3071,7 +3092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="3" t="s">
         <v>145</v>
       </c>
@@ -3082,7 +3103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
         <v>146</v>
       </c>
@@ -3093,7 +3114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="3" t="s">
         <v>147</v>
       </c>
@@ -3104,7 +3125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
@@ -3115,7 +3136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
@@ -3126,7 +3147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
@@ -3137,7 +3158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="3" t="s">
         <v>151</v>
       </c>
@@ -3148,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="3" t="s">
         <v>152</v>
       </c>
@@ -3159,7 +3180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="3" t="s">
         <v>153</v>
       </c>
@@ -3170,7 +3191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
         <v>154</v>
       </c>
@@ -3181,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="3" t="s">
         <v>155</v>
       </c>
@@ -3192,7 +3213,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="3" t="s">
         <v>156</v>
       </c>
@@ -3203,7 +3224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="3" t="s">
         <v>157</v>
       </c>
@@ -3214,7 +3235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="3" t="s">
         <v>158</v>
       </c>
@@ -3225,7 +3246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="3" t="s">
         <v>159</v>
       </c>
@@ -3236,7 +3257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="3" t="s">
         <v>160</v>
       </c>
@@ -3247,7 +3268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="3" t="s">
         <v>161</v>
       </c>
@@ -3258,7 +3279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="3" t="s">
         <v>162</v>
       </c>
@@ -3269,7 +3290,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="3" t="s">
         <v>163</v>
       </c>
@@ -3280,7 +3301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="3" t="s">
         <v>164</v>
       </c>
@@ -3291,7 +3312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="3" t="s">
         <v>165</v>
       </c>
@@ -3302,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="3" t="s">
         <v>166</v>
       </c>
@@ -3313,7 +3334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="3" t="s">
         <v>167</v>
       </c>
@@ -3324,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="3" t="s">
         <v>168</v>
       </c>
@@ -3335,7 +3356,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="3" t="s">
         <v>169</v>
       </c>
@@ -3346,7 +3367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
         <v>170</v>
       </c>
@@ -3357,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="3" t="s">
         <v>171</v>
       </c>
@@ -3368,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="3" t="s">
         <v>172</v>
       </c>
@@ -3379,7 +3400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="3" t="s">
         <v>173</v>
       </c>
@@ -3390,7 +3411,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="3" t="s">
         <v>174</v>
       </c>
@@ -3401,7 +3422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="3" t="s">
         <v>175</v>
       </c>
@@ -3412,7 +3433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="3" t="s">
         <v>176</v>
       </c>
@@ -3423,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="3" t="s">
         <v>177</v>
       </c>
@@ -3434,7 +3455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="3" t="s">
         <v>178</v>
       </c>
@@ -3445,7 +3466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="3" t="s">
         <v>179</v>
       </c>
@@ -3456,7 +3477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="3" t="s">
         <v>180</v>
       </c>
@@ -3467,7 +3488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="3" t="s">
         <v>181</v>
       </c>
@@ -3478,7 +3499,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
         <v>182</v>
       </c>
@@ -3489,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="3" t="s">
         <v>183</v>
       </c>
@@ -3500,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="3" t="s">
         <v>184</v>
       </c>
@@ -3511,7 +3532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="3" t="s">
         <v>185</v>
       </c>
@@ -3522,7 +3543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="3" t="s">
         <v>186</v>
       </c>
@@ -3533,7 +3554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="3" t="s">
         <v>187</v>
       </c>
@@ -3544,7 +3565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="3" t="s">
         <v>188</v>
       </c>
@@ -3555,7 +3576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="3" t="s">
         <v>189</v>
       </c>
@@ -3566,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="3" t="s">
         <v>190</v>
       </c>
@@ -3577,7 +3598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="3" t="s">
         <v>191</v>
       </c>
@@ -3588,7 +3609,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="3" t="s">
         <v>192</v>
       </c>
@@ -3599,7 +3620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="3" t="s">
         <v>193</v>
       </c>
@@ -3610,7 +3631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="3" t="s">
         <v>194</v>
       </c>
@@ -3621,7 +3642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="3" t="s">
         <v>195</v>
       </c>
@@ -3632,7 +3653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="3" t="s">
         <v>196</v>
       </c>
@@ -3643,7 +3664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="3" t="s">
         <v>197</v>
       </c>
@@ -3654,7 +3675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="3" t="s">
         <v>198</v>
       </c>
@@ -3665,7 +3686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
@@ -3676,7 +3697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="3" t="s">
         <v>200</v>
       </c>
@@ -3687,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="3" t="s">
         <v>201</v>
       </c>
@@ -3698,7 +3719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="3" t="s">
         <v>202</v>
       </c>
@@ -3709,7 +3730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="3" t="s">
         <v>203</v>
       </c>
@@ -3720,7 +3741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="3" t="s">
         <v>204</v>
       </c>
@@ -3731,7 +3752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="3" t="s">
         <v>205</v>
       </c>
@@ -3742,7 +3763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="3" t="s">
         <v>206</v>
       </c>
@@ -3753,7 +3774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="3" t="s">
         <v>207</v>
       </c>
@@ -3764,7 +3785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="3" t="s">
         <v>208</v>
       </c>
@@ -3775,7 +3796,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="3" t="s">
         <v>209</v>
       </c>
@@ -3786,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="3" t="s">
         <v>210</v>
       </c>
@@ -3797,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="3" t="s">
         <v>211</v>
       </c>
@@ -3808,7 +3829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="3" t="s">
         <v>212</v>
       </c>
@@ -3819,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="3" t="s">
         <v>213</v>
       </c>
@@ -3830,7 +3851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="3" t="s">
         <v>214</v>
       </c>
@@ -3841,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="3" t="s">
         <v>215</v>
       </c>
@@ -3852,7 +3873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="3" t="s">
         <v>216</v>
       </c>
@@ -3863,7 +3884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="3" t="s">
         <v>217</v>
       </c>
@@ -3874,7 +3895,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="3" t="s">
         <v>218</v>
       </c>
@@ -3885,7 +3906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="3" t="s">
         <v>219</v>
       </c>
@@ -3896,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="3" t="s">
         <v>220</v>
       </c>
@@ -3907,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="3" t="s">
         <v>221</v>
       </c>
@@ -3918,7 +3939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="3" t="s">
         <v>222</v>
       </c>
@@ -3929,7 +3950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="3" t="s">
         <v>223</v>
       </c>
@@ -3940,7 +3961,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="3" t="s">
         <v>224</v>
       </c>
@@ -3951,7 +3972,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="3" t="s">
         <v>225</v>
       </c>
@@ -3962,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="3" t="s">
         <v>226</v>
       </c>
@@ -3973,7 +3994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="3" t="s">
         <v>227</v>
       </c>
@@ -3984,7 +4005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="3" t="s">
         <v>228</v>
       </c>
@@ -3995,7 +4016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="3" t="s">
         <v>229</v>
       </c>
@@ -4006,7 +4027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="3" t="s">
         <v>230</v>
       </c>
@@ -4017,7 +4038,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="3" t="s">
         <v>231</v>
       </c>
@@ -4028,7 +4049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="3" t="s">
         <v>232</v>
       </c>
@@ -4039,7 +4060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="3" t="s">
         <v>233</v>
       </c>
@@ -4050,7 +4071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="3" t="s">
         <v>234</v>
       </c>
@@ -4061,7 +4082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="3" t="s">
         <v>235</v>
       </c>
@@ -4072,7 +4093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="3" t="s">
         <v>236</v>
       </c>
@@ -4083,7 +4104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="3" t="s">
         <v>237</v>
       </c>
@@ -4094,7 +4115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="3" t="s">
         <v>238</v>
       </c>
@@ -4105,7 +4126,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="3" t="s">
         <v>239</v>
       </c>
@@ -4116,7 +4137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="3" t="s">
         <v>240</v>
       </c>
@@ -4127,7 +4148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="3" t="s">
         <v>241</v>
       </c>
@@ -4138,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="3" t="s">
         <v>242</v>
       </c>
@@ -4149,7 +4170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="3" t="s">
         <v>243</v>
       </c>
@@ -4160,7 +4181,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="3" t="s">
         <v>244</v>
       </c>
@@ -4171,7 +4192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244" s="3" t="s">
         <v>245</v>
       </c>
@@ -4182,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245" s="3" t="s">
         <v>246</v>
       </c>
@@ -4193,7 +4214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246" s="3" t="s">
         <v>247</v>
       </c>
@@ -4204,7 +4225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247" s="3" t="s">
         <v>248</v>
       </c>
@@ -4215,7 +4236,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248" s="3" t="s">
         <v>249</v>
       </c>
@@ -4226,7 +4247,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249" s="3" t="s">
         <v>250</v>
       </c>
@@ -4237,7 +4258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250" s="3" t="s">
         <v>251</v>
       </c>
@@ -4248,7 +4269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251" s="3" t="s">
         <v>252</v>
       </c>
@@ -4259,7 +4280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" s="3" t="s">
         <v>253</v>
       </c>
@@ -4270,7 +4291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253" s="3" t="s">
         <v>254</v>
       </c>
@@ -4281,7 +4302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254" s="3" t="s">
         <v>255</v>
       </c>
@@ -4292,7 +4313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255" s="3" t="s">
         <v>256</v>
       </c>
@@ -4303,7 +4324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256" s="3" t="s">
         <v>257</v>
       </c>
@@ -4314,7 +4335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257" s="3" t="s">
         <v>258</v>
       </c>
@@ -4325,7 +4346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258" s="3" t="s">
         <v>259</v>
       </c>
@@ -4336,7 +4357,7 @@
         <v>15364</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="29.05" customHeight="1" r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" s="11" t="s">
         <v>260</v>
       </c>
@@ -4354,16 +4375,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F258"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection pane="topLeft" sqref="A1:C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -4372,7 +4392,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.5">
+    <row ht="33" customHeight="1" r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>261</v>
       </c>
@@ -4382,7 +4402,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.5">
+    <row ht="33" customHeight="1" r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
         <v>262</v>
       </c>
@@ -4392,7 +4412,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="43" customHeight="1" r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>263</v>
       </c>
@@ -4412,7 +4432,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>269</v>
       </c>
@@ -4432,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>269</v>
       </c>
@@ -4452,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>269</v>
       </c>
@@ -4472,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>269</v>
       </c>
@@ -4492,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>269</v>
       </c>
@@ -4512,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>269</v>
       </c>
@@ -4532,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>269</v>
       </c>
@@ -4552,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>269</v>
       </c>
@@ -4572,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>269</v>
       </c>
@@ -4592,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>269</v>
       </c>
@@ -4612,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>269</v>
       </c>
@@ -4632,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>269</v>
       </c>
@@ -4652,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>269</v>
       </c>
@@ -4672,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>269</v>
       </c>
@@ -4692,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>269</v>
       </c>
@@ -4712,7 +4732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>269</v>
       </c>
@@ -4732,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>269</v>
       </c>
@@ -4752,7 +4772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>269</v>
       </c>
@@ -4772,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>269</v>
       </c>
@@ -4792,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>269</v>
       </c>
@@ -4812,7 +4832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>269</v>
       </c>
@@ -4832,7 +4852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>269</v>
       </c>
@@ -4852,7 +4872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>269</v>
       </c>
@@ -4872,7 +4892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>269</v>
       </c>
@@ -4892,7 +4912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>269</v>
       </c>
@@ -4912,7 +4932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>269</v>
       </c>
@@ -4932,7 +4952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>269</v>
       </c>
@@ -4952,7 +4972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>269</v>
       </c>
@@ -4972,7 +4992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>269</v>
       </c>
@@ -4992,7 +5012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>269</v>
       </c>
@@ -5012,7 +5032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>269</v>
       </c>
@@ -5032,7 +5052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>269</v>
       </c>
@@ -5052,7 +5072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>269</v>
       </c>
@@ -5072,7 +5092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>269</v>
       </c>
@@ -5092,7 +5112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>269</v>
       </c>
@@ -5112,7 +5132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>269</v>
       </c>
@@ -5132,7 +5152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>269</v>
       </c>
@@ -5152,7 +5172,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>269</v>
       </c>
@@ -5172,7 +5192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>269</v>
       </c>
@@ -5192,7 +5212,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>269</v>
       </c>
@@ -5212,7 +5232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>269</v>
       </c>
@@ -5232,7 +5252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>269</v>
       </c>
@@ -5252,7 +5272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>269</v>
       </c>
@@ -5272,7 +5292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>269</v>
       </c>
@@ -5292,7 +5312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>269</v>
       </c>
@@ -5312,7 +5332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>269</v>
       </c>
@@ -5332,7 +5352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>269</v>
       </c>
@@ -5352,7 +5372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>269</v>
       </c>
@@ -5372,7 +5392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>269</v>
       </c>
@@ -5392,7 +5412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>269</v>
       </c>
@@ -5412,7 +5432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>269</v>
       </c>
@@ -5432,7 +5452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>269</v>
       </c>
@@ -5452,7 +5472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>269</v>
       </c>
@@ -5472,7 +5492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>269</v>
       </c>
@@ -5492,7 +5512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>269</v>
       </c>
@@ -5512,7 +5532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>269</v>
       </c>
@@ -5532,7 +5552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>269</v>
       </c>
@@ -5552,7 +5572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>269</v>
       </c>
@@ -5572,7 +5592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>269</v>
       </c>
@@ -5592,7 +5612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>269</v>
       </c>
@@ -5612,7 +5632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>269</v>
       </c>
@@ -5632,7 +5652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>269</v>
       </c>
@@ -5652,7 +5672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>269</v>
       </c>
@@ -5672,7 +5692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>269</v>
       </c>
@@ -5692,7 +5712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>269</v>
       </c>
@@ -5712,7 +5732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>269</v>
       </c>
@@ -5732,7 +5752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>269</v>
       </c>
@@ -5752,7 +5772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>269</v>
       </c>
@@ -5772,7 +5792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>269</v>
       </c>
@@ -5792,7 +5812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>269</v>
       </c>
@@ -5812,7 +5832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>269</v>
       </c>
@@ -5832,7 +5852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>269</v>
       </c>
@@ -5852,7 +5872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>269</v>
       </c>
@@ -5872,7 +5892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>269</v>
       </c>
@@ -5892,7 +5912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>269</v>
       </c>
@@ -5912,7 +5932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>269</v>
       </c>
@@ -5932,7 +5952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>269</v>
       </c>
@@ -5952,7 +5972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>269</v>
       </c>
@@ -5972,7 +5992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>269</v>
       </c>
@@ -5992,7 +6012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>269</v>
       </c>
@@ -6012,7 +6032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>269</v>
       </c>
@@ -6032,7 +6052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>269</v>
       </c>
@@ -6052,7 +6072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>269</v>
       </c>
@@ -6072,7 +6092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>269</v>
       </c>
@@ -6092,7 +6112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>269</v>
       </c>
@@ -6112,7 +6132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>269</v>
       </c>
@@ -6132,7 +6152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>269</v>
       </c>
@@ -6152,7 +6172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>269</v>
       </c>
@@ -6172,7 +6192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>269</v>
       </c>
@@ -6192,7 +6212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>269</v>
       </c>
@@ -6212,7 +6232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>269</v>
       </c>
@@ -6232,7 +6252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>269</v>
       </c>
@@ -6252,7 +6272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>269</v>
       </c>
@@ -6272,7 +6292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>269</v>
       </c>
@@ -6292,7 +6312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
         <v>269</v>
       </c>
@@ -6312,7 +6332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
         <v>269</v>
       </c>
@@ -6332,7 +6352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
         <v>269</v>
       </c>
@@ -6352,7 +6372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
         <v>269</v>
       </c>
@@ -6372,7 +6392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
         <v>269</v>
       </c>
@@ -6392,7 +6412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
         <v>269</v>
       </c>
@@ -6412,7 +6432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
         <v>269</v>
       </c>
@@ -6432,7 +6452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
         <v>269</v>
       </c>
@@ -6452,7 +6472,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
         <v>269</v>
       </c>
@@ -6472,7 +6492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
         <v>269</v>
       </c>
@@ -6492,7 +6512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
         <v>270</v>
       </c>
@@ -6512,7 +6532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
         <v>269</v>
       </c>
@@ -6532,7 +6552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
         <v>269</v>
       </c>
@@ -6552,7 +6572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
         <v>269</v>
       </c>
@@ -6572,7 +6592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="3" t="s">
         <v>269</v>
       </c>
@@ -6592,7 +6612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
         <v>269</v>
       </c>
@@ -6612,7 +6632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="s">
         <v>269</v>
       </c>
@@ -6632,7 +6652,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
         <v>269</v>
       </c>
@@ -6652,7 +6672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
         <v>269</v>
       </c>
@@ -6672,7 +6692,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
         <v>269</v>
       </c>
@@ -6692,7 +6712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
         <v>269</v>
       </c>
@@ -6712,7 +6732,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
         <v>269</v>
       </c>
@@ -6732,7 +6752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
         <v>269</v>
       </c>
@@ -6752,7 +6772,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
         <v>269</v>
       </c>
@@ -6772,7 +6792,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
         <v>269</v>
       </c>
@@ -6792,7 +6812,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="3" t="s">
         <v>269</v>
       </c>
@@ -6812,7 +6832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="3" t="s">
         <v>269</v>
       </c>
@@ -6832,7 +6852,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
         <v>269</v>
       </c>
@@ -6852,7 +6872,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="3" t="s">
         <v>269</v>
       </c>
@@ -6872,7 +6892,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="3" t="s">
         <v>269</v>
       </c>
@@ -6892,7 +6912,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
         <v>269</v>
       </c>
@@ -6912,7 +6932,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="3" t="s">
         <v>269</v>
       </c>
@@ -6932,7 +6952,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
         <v>269</v>
       </c>
@@ -6952,7 +6972,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="3" t="s">
         <v>269</v>
       </c>
@@ -6972,7 +6992,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="s">
         <v>269</v>
       </c>
@@ -6992,7 +7012,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
         <v>269</v>
       </c>
@@ -7012,7 +7032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
         <v>269</v>
       </c>
@@ -7032,7 +7052,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="3" t="s">
         <v>269</v>
       </c>
@@ -7052,7 +7072,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="3" t="s">
         <v>271</v>
       </c>
@@ -7072,7 +7092,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="3" t="s">
         <v>269</v>
       </c>
@@ -7092,7 +7112,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="3" t="s">
         <v>269</v>
       </c>
@@ -7112,7 +7132,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="3" t="s">
         <v>272</v>
       </c>
@@ -7132,7 +7152,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
         <v>269</v>
       </c>
@@ -7152,7 +7172,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
         <v>269</v>
       </c>
@@ -7172,7 +7192,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="3" t="s">
         <v>269</v>
       </c>
@@ -7192,7 +7212,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="3" t="s">
         <v>269</v>
       </c>
@@ -7212,7 +7232,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="3" t="s">
         <v>269</v>
       </c>
@@ -7232,7 +7252,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
         <v>269</v>
       </c>
@@ -7252,7 +7272,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="3" t="s">
         <v>269</v>
       </c>
@@ -7272,7 +7292,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="3" t="s">
         <v>273</v>
       </c>
@@ -7292,7 +7312,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
         <v>269</v>
       </c>
@@ -7312,7 +7332,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="3" t="s">
         <v>269</v>
       </c>
@@ -7332,7 +7352,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="3" t="s">
         <v>269</v>
       </c>
@@ -7352,7 +7372,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="3" t="s">
         <v>269</v>
       </c>
@@ -7372,7 +7392,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="3" t="s">
         <v>269</v>
       </c>
@@ -7392,7 +7412,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
         <v>269</v>
       </c>
@@ -7412,7 +7432,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="3" t="s">
         <v>269</v>
       </c>
@@ -7432,7 +7452,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="3" t="s">
         <v>269</v>
       </c>
@@ -7452,7 +7472,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="3" t="s">
         <v>274</v>
       </c>
@@ -7472,7 +7492,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="3" t="s">
         <v>269</v>
       </c>
@@ -7492,7 +7512,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="3" t="s">
         <v>269</v>
       </c>
@@ -7512,7 +7532,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="3" t="s">
         <v>269</v>
       </c>
@@ -7532,7 +7552,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="3" t="s">
         <v>269</v>
       </c>
@@ -7552,7 +7572,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="3" t="s">
         <v>269</v>
       </c>
@@ -7572,7 +7592,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="3" t="s">
         <v>269</v>
       </c>
@@ -7592,7 +7612,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="3" t="s">
         <v>269</v>
       </c>
@@ -7612,7 +7632,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="3" t="s">
         <v>275</v>
       </c>
@@ -7632,7 +7652,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="3" t="s">
         <v>269</v>
       </c>
@@ -7652,7 +7672,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="3" t="s">
         <v>269</v>
       </c>
@@ -7672,7 +7692,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="3" t="s">
         <v>269</v>
       </c>
@@ -7692,7 +7712,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="3" t="s">
         <v>269</v>
       </c>
@@ -7712,7 +7732,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
         <v>269</v>
       </c>
@@ -7732,7 +7752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="3" t="s">
         <v>276</v>
       </c>
@@ -7752,7 +7772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="3" t="s">
         <v>269</v>
       </c>
@@ -7772,7 +7792,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="3" t="s">
         <v>277</v>
       </c>
@@ -7792,7 +7812,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="3" t="s">
         <v>278</v>
       </c>
@@ -7812,7 +7832,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="3" t="s">
         <v>279</v>
       </c>
@@ -7832,7 +7852,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
@@ -7852,7 +7872,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="3" t="s">
         <v>281</v>
       </c>
@@ -7872,7 +7892,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="3" t="s">
         <v>282</v>
       </c>
@@ -7892,7 +7912,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="3" t="s">
         <v>269</v>
       </c>
@@ -7912,7 +7932,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="3" t="s">
         <v>283</v>
       </c>
@@ -7932,7 +7952,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" s="3" t="s">
         <v>284</v>
       </c>
@@ -7952,7 +7972,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
         <v>285</v>
       </c>
@@ -7972,7 +7992,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" s="3" t="s">
         <v>286</v>
       </c>
@@ -7992,7 +8012,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="3" t="s">
         <v>287</v>
       </c>
@@ -8012,7 +8032,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" s="3" t="s">
         <v>288</v>
       </c>
@@ -8032,7 +8052,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="3" t="s">
         <v>289</v>
       </c>
@@ -8052,7 +8072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" s="3" t="s">
         <v>290</v>
       </c>
@@ -8072,7 +8092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="3" t="s">
         <v>291</v>
       </c>
@@ -8092,7 +8112,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" s="3" t="s">
         <v>292</v>
       </c>
@@ -8112,7 +8132,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="3" t="s">
         <v>293</v>
       </c>
@@ -8132,7 +8152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" s="3" t="s">
         <v>294</v>
       </c>
@@ -8152,7 +8172,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" s="3" t="s">
         <v>295</v>
       </c>
@@ -8172,7 +8192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" s="3" t="s">
         <v>296</v>
       </c>
@@ -8192,7 +8212,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="3" t="s">
         <v>297</v>
       </c>
@@ -8212,7 +8232,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="3" t="s">
         <v>368</v>
       </c>
@@ -8232,7 +8252,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="3" t="s">
         <v>369</v>
       </c>
@@ -8252,7 +8272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" s="3" t="s">
         <v>370</v>
       </c>
@@ -8272,7 +8292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" s="3" t="s">
         <v>371</v>
       </c>
@@ -8292,7 +8312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="3" t="s">
         <v>372</v>
       </c>
@@ -8312,7 +8332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" s="3" t="s">
         <v>373</v>
       </c>
@@ -8332,7 +8352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="3" t="s">
         <v>374</v>
       </c>
@@ -8352,7 +8372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="3" t="s">
         <v>375</v>
       </c>
@@ -8372,7 +8392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" s="3" t="s">
         <v>376</v>
       </c>
@@ -8392,7 +8412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" s="3" t="s">
         <v>377</v>
       </c>
@@ -8412,7 +8432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" s="3" t="s">
         <v>378</v>
       </c>
@@ -8432,7 +8452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" s="3" t="s">
         <v>379</v>
       </c>
@@ -8452,7 +8472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" s="3" t="s">
         <v>380</v>
       </c>
@@ -8472,7 +8492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" s="3" t="s">
         <v>381</v>
       </c>
@@ -8492,7 +8512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" s="3" t="s">
         <v>382</v>
       </c>
@@ -8512,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" s="3" t="s">
         <v>383</v>
       </c>
@@ -8532,7 +8552,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" s="11" t="s">
         <v>260</v>
       </c>
@@ -8542,237 +8562,237 @@
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
     </row>
-    <row r="212" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" s="12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" s="12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" s="12" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" s="12" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" s="12" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" s="12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" s="12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" s="12" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" s="12" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" s="12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A225" s="12" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A226" s="12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="227" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A227" s="12" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="228" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A228" s="12" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="229" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A229" s="12" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A230" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A231" s="12" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="232" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A232" s="12" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="233" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A233" s="12" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="234" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A234" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A235" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="236" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A236" s="12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="237" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A237" s="12" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="238" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A238" s="12" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A239" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A240" s="12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A241" s="12" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A242" s="12" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="243" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A243" s="12" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="244" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A244" s="12" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="245" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A245" s="12" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="246" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A246" s="12" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="247" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A247" s="12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A248" s="12" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A249" s="12" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A250" s="12" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A251" s="12" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A252" s="12" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A253" s="12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A254" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A256" s="12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A257" s="12" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="12" customHeight="1" r="258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A258" s="12" t="s">
         <v>367</v>
       </c>
@@ -8789,28 +8809,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection pane="topLeft" sqref="A1:C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="101.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row ht="101.05" customHeight="1" r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>299</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>300</v>
       </c>
@@ -8818,15 +8837,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>646142.6</v>
       </c>
       <c r="B3" s="8">
-        <v>67045.399999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="218.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>67045.4</v>
+      </c>
+    </row>
+    <row ht="218.05" customHeight="1" r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>302</v>
       </c>
@@ -8843,28 +8862,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="topLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row ht="16" customHeight="1" r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>303</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>304</v>
       </c>
@@ -8872,7 +8890,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>306</v>
       </c>
@@ -8880,7 +8898,7 @@
         <v>394584</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>307</v>
       </c>
@@ -8888,7 +8906,7 @@
         <v>35656</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>308</v>
       </c>
@@ -8905,28 +8923,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="topLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row ht="16" customHeight="1" r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>309</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>310</v>
       </c>
@@ -8934,7 +8951,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>311</v>
       </c>
@@ -8942,7 +8959,7 @@
         <v>78472</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>312</v>
       </c>
@@ -8950,7 +8967,7 @@
         <v>9190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>308</v>
       </c>
@@ -8967,28 +8984,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection pane="topLeft" sqref="A1:C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.5">
+    <row ht="16" customHeight="1" r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>313</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>314</v>
       </c>
@@ -8996,7 +9012,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>315</v>
       </c>
@@ -9004,7 +9020,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>316</v>
       </c>
@@ -9012,7 +9028,7 @@
         <v>57930</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>317</v>
       </c>
@@ -9020,7 +9036,7 @@
         <v>12046</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>318</v>
       </c>
@@ -9028,7 +9044,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>319</v>
       </c>
@@ -9036,7 +9052,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>308</v>
       </c>
@@ -9053,30 +9069,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection pane="topLeft" sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row ht="50.05" customHeight="1" r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>320</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>321</v>
       </c>
@@ -9087,7 +9102,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -9098,7 +9113,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -9109,7 +9124,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -9120,7 +9135,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -9131,7 +9146,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -9142,7 +9157,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -9153,7 +9168,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -9164,7 +9179,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -9175,7 +9190,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -9186,7 +9201,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -9197,7 +9212,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -9208,7 +9223,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -9219,7 +9234,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -9230,7 +9245,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -9241,7 +9256,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -9252,7 +9267,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -9263,7 +9278,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -9274,7 +9289,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -9285,7 +9300,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -9296,7 +9311,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -9307,7 +9322,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -9318,7 +9333,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -9329,7 +9344,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -9340,7 +9355,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -9351,7 +9366,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -9362,7 +9377,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -9373,7 +9388,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -9384,7 +9399,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -9395,7 +9410,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -9406,7 +9421,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -9417,7 +9432,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -9428,7 +9443,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -9439,7 +9454,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -9450,7 +9465,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -9461,7 +9476,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -9472,7 +9487,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -9483,7 +9498,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -9494,7 +9509,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -9505,7 +9520,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -9516,7 +9531,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -9527,7 +9542,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -9538,7 +9553,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -9549,7 +9564,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -9560,7 +9575,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -9571,7 +9586,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -9582,7 +9597,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -9593,7 +9608,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -9604,7 +9619,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -9615,7 +9630,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -9626,7 +9641,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -9637,7 +9652,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -9648,7 +9663,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -9659,7 +9674,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -9670,7 +9685,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -9681,7 +9696,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -9692,7 +9707,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -9703,7 +9718,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -9714,7 +9729,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -9725,7 +9740,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -9736,7 +9751,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -9747,7 +9762,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -9758,7 +9773,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -9769,7 +9784,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -9780,7 +9795,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -9791,7 +9806,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -9802,7 +9817,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -9813,7 +9828,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -9824,7 +9839,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -9835,7 +9850,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -9846,7 +9861,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -9857,7 +9872,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -9868,7 +9883,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -9879,7 +9894,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -9890,7 +9905,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -9901,7 +9916,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -9912,7 +9927,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -9923,7 +9938,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -9934,7 +9949,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -9945,7 +9960,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -9956,7 +9971,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -9967,7 +9982,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -9978,7 +9993,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -9989,7 +10004,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -10000,7 +10015,7 @@
         <v>4739</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -10011,7 +10026,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -10022,7 +10037,7 @@
         <v>5523</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -10033,7 +10048,7 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -10044,7 +10059,7 @@
         <v>5913</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -10055,7 +10070,7 @@
         <v>6533</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -10066,7 +10081,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -10077,7 +10092,7 @@
         <v>7382</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -10088,7 +10103,7 @@
         <v>7652</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -10099,7 +10114,7 @@
         <v>7890</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -10110,7 +10125,7 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -10121,7 +10136,7 @@
         <v>8698</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -10132,7 +10147,7 @@
         <v>9286</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -10143,7 +10158,7 @@
         <v>9610</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -10154,7 +10169,7 @@
         <v>9689</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -10165,7 +10180,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -10176,7 +10191,7 @@
         <v>10083</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -10187,7 +10202,7 @@
         <v>10410</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -10198,7 +10213,7 @@
         <v>10405</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -10209,7 +10224,7 @@
         <v>10569</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -10220,7 +10235,7 @@
         <v>10471</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -10231,7 +10246,7 @@
         <v>10457</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -10242,7 +10257,7 @@
         <v>10632</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -10253,7 +10268,7 @@
         <v>10658</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -10264,7 +10279,7 @@
         <v>10592</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -10275,7 +10290,7 @@
         <v>10569</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -10286,7 +10301,7 @@
         <v>10848</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -10297,7 +10312,7 @@
         <v>10893</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -10308,7 +10323,7 @@
         <v>8858</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -10319,7 +10334,7 @@
         <v>10036</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -10330,7 +10345,7 @@
         <v>9827</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -10341,7 +10356,7 @@
         <v>9794</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -10352,7 +10367,7 @@
         <v>9781</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -10363,7 +10378,7 @@
         <v>9593</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -10374,7 +10389,7 @@
         <v>9595</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -10385,7 +10400,7 @@
         <v>9296</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -10396,7 +10411,7 @@
         <v>9336</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -10407,7 +10422,7 @@
         <v>8969</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -10418,7 +10433,7 @@
         <v>8610</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -10429,7 +10444,7 @@
         <v>8819</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -10440,7 +10455,7 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -10451,7 +10466,7 @@
         <v>8455</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -10462,7 +10477,7 @@
         <v>8302</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -10473,7 +10488,7 @@
         <v>8065</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -10484,7 +10499,7 @@
         <v>7872</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -10495,7 +10510,7 @@
         <v>7437</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -10506,7 +10521,7 @@
         <v>7304</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -10517,7 +10532,7 @@
         <v>7216</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -10528,7 +10543,7 @@
         <v>7028</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -10539,7 +10554,7 @@
         <v>6879</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -10550,7 +10565,7 @@
         <v>6632</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -10561,7 +10576,7 @@
         <v>6481</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -10572,7 +10587,7 @@
         <v>6267</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -10583,7 +10598,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -10594,7 +10609,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -10605,7 +10620,7 @@
         <v>5974</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -10616,7 +10631,7 @@
         <v>5635</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -10627,7 +10642,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -10638,7 +10653,7 @@
         <v>5274</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -10649,7 +10664,7 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -10660,7 +10675,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -10671,7 +10686,7 @@
         <v>4907</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -10682,7 +10697,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -10693,7 +10708,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -10704,7 +10719,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -10715,7 +10730,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -10726,7 +10741,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -10737,7 +10752,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -10748,7 +10763,7 @@
         <v>4144</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -10759,7 +10774,7 @@
         <v>4149</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -10770,7 +10785,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -10781,7 +10796,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -10792,7 +10807,7 @@
         <v>3973</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -10803,7 +10818,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -10814,7 +10829,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -10825,7 +10840,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -10836,7 +10851,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -10847,7 +10862,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -10858,7 +10873,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -10869,7 +10884,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -10880,7 +10895,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -10891,7 +10906,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -10902,7 +10917,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -10913,7 +10928,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -10924,7 +10939,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -10935,7 +10950,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -10946,7 +10961,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -10957,7 +10972,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -10968,7 +10983,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -10979,7 +10994,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -10990,7 +11005,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -11001,7 +11016,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="14.05" customHeight="1" r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -11012,7 +11027,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row ht="29.05" customHeight="1" r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="11" t="s">
         <v>308</v>
       </c>
